--- a/법인인감 사용대장.xlsx
+++ b/법인인감 사용대장.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yeomjh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="218">
   <si>
     <t>사용인감(공인인증서)사용 관리대장</t>
   </si>
@@ -670,6 +670,10 @@
   </si>
   <si>
     <t>4 of 4</t>
+  </si>
+  <si>
+    <t>sdfsf</t>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1478,6 +1482,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1501,42 +1541,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1922,7 +1926,7 @@
   <dimension ref="A1:W104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1975,31 +1979,31 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="30"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2027,31 +2031,31 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="18"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="30"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
@@ -2082,21 +2086,21 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2143,45 +2147,45 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="16" t="s">
+      <c r="H8" s="30"/>
+      <c r="I8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="16" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="16" t="s">
+      <c r="L8" s="30"/>
+      <c r="M8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="18"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="16" t="s">
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="18"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30"/>
     </row>
     <row r="9" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
@@ -2217,26 +2221,26 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="25"/>
+      <c r="C10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="18"/>
       <c r="E10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2266,26 +2270,26 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="25"/>
+      <c r="C11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18"/>
       <c r="E11" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="27"/>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="24" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="24" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="7" t="s">
         <v>23</v>
       </c>
@@ -2313,26 +2317,26 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="25"/>
+      <c r="C12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="18"/>
       <c r="E12" s="26" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="24" t="s">
+      <c r="J12" s="18"/>
+      <c r="K12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2360,26 +2364,26 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="25"/>
+      <c r="C13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="26" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="27"/>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="18"/>
+      <c r="K13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2405,26 +2409,26 @@
         <v>34</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="25"/>
+      <c r="C14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="24" t="s">
+      <c r="J14" s="18"/>
+      <c r="K14" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2450,26 +2454,26 @@
         <v>34</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="25"/>
+      <c r="C15" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="24" t="s">
+      <c r="J15" s="18"/>
+      <c r="K15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2495,26 +2499,26 @@
         <v>34</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="25"/>
+      <c r="C16" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="27"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="18"/>
+      <c r="I16" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="24" t="s">
+      <c r="J16" s="18"/>
+      <c r="K16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2542,24 +2546,24 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="25"/>
+      <c r="C17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="18"/>
       <c r="E17" s="26" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="7"/>
       <c r="N17" s="8" t="s">
         <v>24</v>
@@ -2583,26 +2587,26 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25"/>
+      <c r="C18" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="18"/>
       <c r="E18" s="26" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="24" t="s">
+      <c r="J18" s="18"/>
+      <c r="K18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2630,26 +2634,26 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="25"/>
+      <c r="C19" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18"/>
       <c r="E19" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="24" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="24" t="s">
+      <c r="J19" s="18"/>
+      <c r="K19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2677,26 +2681,26 @@
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="25"/>
+      <c r="C20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18"/>
       <c r="E20" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="27"/>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="24" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="24" t="s">
+      <c r="J20" s="18"/>
+      <c r="K20" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="7" t="s">
         <v>54</v>
       </c>
@@ -2724,24 +2728,24 @@
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="25"/>
+      <c r="C21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="18"/>
       <c r="E21" s="26" t="s">
         <v>50</v>
       </c>
       <c r="F21" s="27"/>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="24" t="s">
+      <c r="H21" s="18"/>
+      <c r="I21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
         <v>24</v>
@@ -2765,24 +2769,24 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="25"/>
+      <c r="C22" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="27"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24" t="s">
+      <c r="H22" s="18"/>
+      <c r="I22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8" t="s">
         <v>24</v>
@@ -2806,26 +2810,26 @@
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="25"/>
+      <c r="C23" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="27"/>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="24" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="24" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="25"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="7" t="s">
         <v>62</v>
       </c>
@@ -2853,24 +2857,24 @@
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="25"/>
+      <c r="C24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="18"/>
       <c r="E24" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="24" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="25"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8" t="s">
         <v>24</v>
@@ -2894,24 +2898,24 @@
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="25"/>
+      <c r="C25" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="18"/>
       <c r="E25" s="26" t="s">
         <v>59</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="24" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="25"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="7"/>
       <c r="N25" s="8" t="s">
         <v>24</v>
@@ -2935,26 +2939,26 @@
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="25"/>
+      <c r="C26" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18"/>
       <c r="E26" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F26" s="27"/>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="24" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="25"/>
-      <c r="K26" s="24" t="s">
+      <c r="J26" s="18"/>
+      <c r="K26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="25"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2982,26 +2986,26 @@
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="25"/>
+      <c r="C27" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="18"/>
       <c r="E27" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="27"/>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="24" t="s">
+      <c r="J27" s="18"/>
+      <c r="K27" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="25"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="7" t="s">
         <v>23</v>
       </c>
@@ -3027,24 +3031,24 @@
         <v>68</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="25"/>
+      <c r="C28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="18"/>
       <c r="E28" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F28" s="27"/>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="24" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="25"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="7"/>
       <c r="N28" s="8" t="s">
         <v>24</v>
@@ -3068,26 +3072,26 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="25"/>
+      <c r="C29" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="18"/>
       <c r="E29" s="26" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="27"/>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="24" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="24" t="s">
+      <c r="J29" s="18"/>
+      <c r="K29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L29" s="25"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="7" t="s">
         <v>23</v>
       </c>
@@ -3115,26 +3119,26 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="25"/>
+      <c r="C30" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="18"/>
       <c r="E30" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F30" s="27"/>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="24" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="24" t="s">
+      <c r="J30" s="18"/>
+      <c r="K30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="25"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3162,26 +3166,26 @@
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="25"/>
+      <c r="C31" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="18"/>
       <c r="E31" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="27"/>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="24" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="24" t="s">
+      <c r="J31" s="18"/>
+      <c r="K31" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="25"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="7" t="s">
         <v>23</v>
       </c>
@@ -3209,26 +3213,26 @@
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="25"/>
+      <c r="C32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="18"/>
       <c r="E32" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F32" s="27"/>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="24" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="24" t="s">
+      <c r="J32" s="18"/>
+      <c r="K32" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="25"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3256,26 +3260,26 @@
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="25"/>
+      <c r="C33" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="18"/>
       <c r="E33" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F33" s="27"/>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="24" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="24" t="s">
+      <c r="J33" s="18"/>
+      <c r="K33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="25"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="7" t="s">
         <v>23</v>
       </c>
@@ -3303,26 +3307,26 @@
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="25"/>
+      <c r="C34" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="18"/>
       <c r="E34" s="26" t="s">
         <v>78</v>
       </c>
       <c r="F34" s="27"/>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24" t="s">
+      <c r="H34" s="18"/>
+      <c r="I34" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="24" t="s">
+      <c r="J34" s="18"/>
+      <c r="K34" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="25"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="7" t="s">
         <v>23</v>
       </c>
@@ -3350,26 +3354,26 @@
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="25"/>
+      <c r="C35" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="18"/>
       <c r="E35" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F35" s="27"/>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="25"/>
-      <c r="I35" s="24" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="24" t="s">
+      <c r="J35" s="18"/>
+      <c r="K35" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="25"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="7" t="s">
         <v>23</v>
       </c>
@@ -3397,26 +3401,26 @@
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="25"/>
+      <c r="C36" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="18"/>
       <c r="E36" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="27"/>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="24" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="24" t="s">
+      <c r="J36" s="18"/>
+      <c r="K36" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="25"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="7" t="s">
         <v>23</v>
       </c>
@@ -3433,7 +3437,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="1"/>
+      <c r="U36" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
     </row>
@@ -3444,26 +3450,26 @@
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="25"/>
+      <c r="C37" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="18"/>
       <c r="E37" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F37" s="27"/>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="24" t="s">
+      <c r="H37" s="18"/>
+      <c r="I37" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="24" t="s">
+      <c r="J37" s="18"/>
+      <c r="K37" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="25"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="7" t="s">
         <v>23</v>
       </c>
@@ -3491,26 +3497,26 @@
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="25"/>
+      <c r="C38" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="27"/>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="24" t="s">
+      <c r="H38" s="18"/>
+      <c r="I38" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="24" t="s">
+      <c r="J38" s="18"/>
+      <c r="K38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="25"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="7" t="s">
         <v>23</v>
       </c>
@@ -3538,24 +3544,24 @@
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="25"/>
+      <c r="C39" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="18"/>
       <c r="E39" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F39" s="27"/>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="24" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="7"/>
       <c r="N39" s="8" t="s">
         <v>24</v>
@@ -3579,26 +3585,26 @@
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="25"/>
+      <c r="C40" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="26" t="s">
         <v>92</v>
       </c>
       <c r="F40" s="27"/>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="25"/>
-      <c r="I40" s="24" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="24" t="s">
+      <c r="J40" s="18"/>
+      <c r="K40" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="25"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="7" t="s">
         <v>23</v>
       </c>
@@ -3624,26 +3630,26 @@
         <v>97</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="25"/>
+      <c r="C41" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="18"/>
       <c r="E41" s="26" t="s">
         <v>88</v>
       </c>
       <c r="F41" s="27"/>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="24" t="s">
+      <c r="H41" s="18"/>
+      <c r="I41" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="24" t="s">
+      <c r="J41" s="18"/>
+      <c r="K41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="25"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="7" t="s">
         <v>100</v>
       </c>
@@ -3671,26 +3677,26 @@
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="25"/>
+      <c r="C42" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F42" s="27"/>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="25"/>
-      <c r="I42" s="24" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="24" t="s">
+      <c r="J42" s="18"/>
+      <c r="K42" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="25"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="7" t="s">
         <v>100</v>
       </c>
@@ -3718,26 +3724,26 @@
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="25"/>
+      <c r="C43" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="18"/>
       <c r="E43" s="26" t="s">
         <v>102</v>
       </c>
       <c r="F43" s="27"/>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="24" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="24" t="s">
+      <c r="J43" s="18"/>
+      <c r="K43" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="25"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="7" t="s">
         <v>23</v>
       </c>
@@ -3765,26 +3771,26 @@
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="25"/>
+      <c r="C44" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="18"/>
       <c r="E44" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F44" s="27"/>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="25"/>
-      <c r="I44" s="24" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="24" t="s">
+      <c r="J44" s="18"/>
+      <c r="K44" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L44" s="25"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="7"/>
       <c r="N44" s="8" t="s">
         <v>24</v>
@@ -3810,26 +3816,26 @@
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="25"/>
+      <c r="C45" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="18"/>
       <c r="E45" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F45" s="27"/>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="24" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="24" t="s">
+      <c r="J45" s="18"/>
+      <c r="K45" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="25"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="7"/>
       <c r="N45" s="8" t="s">
         <v>24</v>
@@ -3855,26 +3861,26 @@
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="25"/>
+      <c r="C46" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="18"/>
       <c r="E46" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F46" s="27"/>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="24" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="24" t="s">
+      <c r="J46" s="18"/>
+      <c r="K46" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="25"/>
+      <c r="L46" s="18"/>
       <c r="M46" s="7"/>
       <c r="N46" s="8" t="s">
         <v>24</v>
@@ -3900,26 +3906,26 @@
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="25"/>
+      <c r="C47" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="18"/>
       <c r="E47" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F47" s="27"/>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="24" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="24" t="s">
+      <c r="J47" s="18"/>
+      <c r="K47" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L47" s="25"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="7"/>
       <c r="N47" s="8" t="s">
         <v>24</v>
@@ -3945,26 +3951,26 @@
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="25"/>
+      <c r="C48" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="18"/>
       <c r="E48" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F48" s="27"/>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="25"/>
-      <c r="I48" s="24" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="24" t="s">
+      <c r="J48" s="18"/>
+      <c r="K48" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="25"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="7"/>
       <c r="N48" s="8" t="s">
         <v>24</v>
@@ -3990,26 +3996,26 @@
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="25"/>
+      <c r="C49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="18"/>
       <c r="E49" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F49" s="27"/>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="24" t="s">
+      <c r="H49" s="18"/>
+      <c r="I49" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="24" t="s">
+      <c r="J49" s="18"/>
+      <c r="K49" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="L49" s="25"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="7"/>
       <c r="N49" s="8" t="s">
         <v>24</v>
@@ -4035,26 +4041,26 @@
       <c r="B50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="25"/>
+      <c r="C50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="18"/>
       <c r="E50" s="26" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="27"/>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="25"/>
-      <c r="I50" s="24" t="s">
+      <c r="H50" s="18"/>
+      <c r="I50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="24" t="s">
+      <c r="J50" s="18"/>
+      <c r="K50" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="25"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="7" t="s">
         <v>23</v>
       </c>
@@ -4082,26 +4088,26 @@
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="25"/>
+      <c r="C51" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="18"/>
       <c r="E51" s="26" t="s">
         <v>121</v>
       </c>
       <c r="F51" s="27"/>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24" t="s">
+      <c r="H51" s="18"/>
+      <c r="I51" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="24" t="s">
+      <c r="J51" s="18"/>
+      <c r="K51" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="25"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="7" t="s">
         <v>23</v>
       </c>
@@ -4127,24 +4133,24 @@
         <v>124</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="25"/>
+      <c r="C52" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="18"/>
       <c r="E52" s="26" t="s">
         <v>125</v>
       </c>
       <c r="F52" s="27"/>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="25"/>
-      <c r="I52" s="24" t="s">
+      <c r="H52" s="18"/>
+      <c r="I52" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="18"/>
       <c r="M52" s="7"/>
       <c r="N52" s="8" t="s">
         <v>24</v>
@@ -4168,26 +4174,26 @@
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="25"/>
+      <c r="C53" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="18"/>
       <c r="E53" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F53" s="27"/>
-      <c r="G53" s="24" t="s">
+      <c r="G53" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="24" t="s">
+      <c r="H53" s="18"/>
+      <c r="I53" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="24" t="s">
+      <c r="J53" s="18"/>
+      <c r="K53" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="25"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="7"/>
       <c r="N53" s="8" t="s">
         <v>24</v>
@@ -4213,26 +4219,26 @@
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="25"/>
+      <c r="C54" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="18"/>
       <c r="E54" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F54" s="27"/>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="25"/>
-      <c r="I54" s="24" t="s">
+      <c r="H54" s="18"/>
+      <c r="I54" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="24" t="s">
+      <c r="J54" s="18"/>
+      <c r="K54" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L54" s="25"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="7"/>
       <c r="N54" s="8" t="s">
         <v>24</v>
@@ -4258,26 +4264,26 @@
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="25"/>
+      <c r="C55" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="18"/>
       <c r="E55" s="26" t="s">
         <v>127</v>
       </c>
       <c r="F55" s="27"/>
-      <c r="G55" s="24" t="s">
+      <c r="G55" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="24" t="s">
+      <c r="H55" s="18"/>
+      <c r="I55" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="24" t="s">
+      <c r="J55" s="18"/>
+      <c r="K55" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="25"/>
+      <c r="L55" s="18"/>
       <c r="M55" s="7"/>
       <c r="N55" s="8" t="s">
         <v>24</v>
@@ -4303,24 +4309,24 @@
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="25"/>
+      <c r="C56" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="18"/>
       <c r="E56" s="26" t="s">
         <v>129</v>
       </c>
       <c r="F56" s="27"/>
-      <c r="G56" s="24" t="s">
+      <c r="G56" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="24" t="s">
+      <c r="H56" s="18"/>
+      <c r="I56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="25"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="7"/>
       <c r="N56" s="8" t="s">
         <v>24</v>
@@ -4344,26 +4350,26 @@
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="25"/>
+      <c r="C57" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="18"/>
       <c r="E57" s="26" t="s">
         <v>133</v>
       </c>
       <c r="F57" s="27"/>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="25"/>
-      <c r="I57" s="24" t="s">
+      <c r="H57" s="18"/>
+      <c r="I57" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J57" s="25"/>
-      <c r="K57" s="24" t="s">
+      <c r="J57" s="18"/>
+      <c r="K57" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="25"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="7" t="s">
         <v>23</v>
       </c>
@@ -4391,26 +4397,26 @@
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="25"/>
+      <c r="C58" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="18"/>
       <c r="E58" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F58" s="27"/>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="25"/>
-      <c r="I58" s="24" t="s">
+      <c r="H58" s="18"/>
+      <c r="I58" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="24" t="s">
+      <c r="J58" s="18"/>
+      <c r="K58" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L58" s="25"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="7" t="s">
         <v>23</v>
       </c>
@@ -4438,26 +4444,26 @@
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="25"/>
+      <c r="C59" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="18"/>
       <c r="E59" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F59" s="27"/>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="24" t="s">
+      <c r="H59" s="18"/>
+      <c r="I59" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="24" t="s">
+      <c r="J59" s="18"/>
+      <c r="K59" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="L59" s="25"/>
+      <c r="L59" s="18"/>
       <c r="M59" s="7" t="s">
         <v>23</v>
       </c>
@@ -4485,26 +4491,26 @@
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="25"/>
+      <c r="C60" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="18"/>
       <c r="E60" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F60" s="27"/>
-      <c r="G60" s="24" t="s">
+      <c r="G60" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="25"/>
-      <c r="I60" s="24" t="s">
+      <c r="H60" s="18"/>
+      <c r="I60" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="24" t="s">
+      <c r="J60" s="18"/>
+      <c r="K60" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L60" s="25"/>
+      <c r="L60" s="18"/>
       <c r="M60" s="7" t="s">
         <v>62</v>
       </c>
@@ -4532,26 +4538,26 @@
       <c r="B61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="25"/>
+      <c r="C61" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="18"/>
       <c r="E61" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F61" s="27"/>
-      <c r="G61" s="24" t="s">
+      <c r="G61" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="24" t="s">
+      <c r="H61" s="18"/>
+      <c r="I61" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="24" t="s">
+      <c r="J61" s="18"/>
+      <c r="K61" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="L61" s="25"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="7" t="s">
         <v>23</v>
       </c>
@@ -4579,26 +4585,26 @@
       <c r="B62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="25"/>
+      <c r="C62" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="18"/>
       <c r="E62" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F62" s="27"/>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="25"/>
-      <c r="I62" s="24" t="s">
+      <c r="H62" s="18"/>
+      <c r="I62" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="24" t="s">
+      <c r="J62" s="18"/>
+      <c r="K62" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="L62" s="25"/>
+      <c r="L62" s="18"/>
       <c r="M62" s="7" t="s">
         <v>23</v>
       </c>
@@ -4626,26 +4632,26 @@
       <c r="B63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="25"/>
+      <c r="C63" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="18"/>
       <c r="E63" s="26" t="s">
         <v>137</v>
       </c>
       <c r="F63" s="27"/>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="24" t="s">
+      <c r="H63" s="18"/>
+      <c r="I63" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="24" t="s">
+      <c r="J63" s="18"/>
+      <c r="K63" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L63" s="25"/>
+      <c r="L63" s="18"/>
       <c r="M63" s="7" t="s">
         <v>23</v>
       </c>
@@ -4673,24 +4679,24 @@
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="25"/>
+      <c r="C64" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="18"/>
       <c r="E64" s="26" t="s">
         <v>146</v>
       </c>
       <c r="F64" s="27"/>
-      <c r="G64" s="24" t="s">
+      <c r="G64" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="25"/>
-      <c r="I64" s="24" t="s">
+      <c r="H64" s="18"/>
+      <c r="I64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="25"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="7"/>
       <c r="N64" s="8" t="s">
         <v>24</v>
@@ -4714,26 +4720,26 @@
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="25"/>
+      <c r="C65" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="18"/>
       <c r="E65" s="26" t="s">
         <v>146</v>
       </c>
       <c r="F65" s="27"/>
-      <c r="G65" s="24" t="s">
+      <c r="G65" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="25"/>
-      <c r="I65" s="24" t="s">
+      <c r="H65" s="18"/>
+      <c r="I65" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="24" t="s">
+      <c r="J65" s="18"/>
+      <c r="K65" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L65" s="25"/>
+      <c r="L65" s="18"/>
       <c r="M65" s="7" t="s">
         <v>23</v>
       </c>
@@ -4761,26 +4767,26 @@
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="25"/>
+      <c r="C66" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="18"/>
       <c r="E66" s="26" t="s">
         <v>149</v>
       </c>
       <c r="F66" s="27"/>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="25"/>
-      <c r="I66" s="24" t="s">
+      <c r="H66" s="18"/>
+      <c r="I66" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="24" t="s">
+      <c r="J66" s="18"/>
+      <c r="K66" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L66" s="25"/>
+      <c r="L66" s="18"/>
       <c r="M66" s="7" t="s">
         <v>23</v>
       </c>
@@ -4808,26 +4814,26 @@
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="25"/>
+      <c r="C67" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="18"/>
       <c r="E67" s="26" t="s">
         <v>149</v>
       </c>
       <c r="F67" s="27"/>
-      <c r="G67" s="24" t="s">
+      <c r="G67" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="25"/>
-      <c r="I67" s="24" t="s">
+      <c r="H67" s="18"/>
+      <c r="I67" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="24" t="s">
+      <c r="J67" s="18"/>
+      <c r="K67" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="25"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="7" t="s">
         <v>23</v>
       </c>
@@ -4855,26 +4861,26 @@
       <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="25"/>
+      <c r="C68" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="18"/>
       <c r="E68" s="26" t="s">
         <v>149</v>
       </c>
       <c r="F68" s="27"/>
-      <c r="G68" s="24" t="s">
+      <c r="G68" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="25"/>
-      <c r="I68" s="24" t="s">
+      <c r="H68" s="18"/>
+      <c r="I68" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="24" t="s">
+      <c r="J68" s="18"/>
+      <c r="K68" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="L68" s="25"/>
+      <c r="L68" s="18"/>
       <c r="M68" s="7" t="s">
         <v>23</v>
       </c>
@@ -4902,26 +4908,26 @@
       <c r="B69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="25"/>
+      <c r="C69" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="18"/>
       <c r="E69" s="26" t="s">
         <v>157</v>
       </c>
       <c r="F69" s="27"/>
-      <c r="G69" s="24" t="s">
+      <c r="G69" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="25"/>
-      <c r="I69" s="24" t="s">
+      <c r="H69" s="18"/>
+      <c r="I69" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J69" s="25"/>
-      <c r="K69" s="24" t="s">
+      <c r="J69" s="18"/>
+      <c r="K69" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L69" s="25"/>
+      <c r="L69" s="18"/>
       <c r="M69" s="7" t="s">
         <v>23</v>
       </c>
@@ -4949,26 +4955,26 @@
       <c r="B70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="25"/>
+      <c r="C70" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="18"/>
       <c r="E70" s="26" t="s">
         <v>157</v>
       </c>
       <c r="F70" s="27"/>
-      <c r="G70" s="24" t="s">
+      <c r="G70" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="25"/>
-      <c r="I70" s="24" t="s">
+      <c r="H70" s="18"/>
+      <c r="I70" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J70" s="25"/>
-      <c r="K70" s="24" t="s">
+      <c r="J70" s="18"/>
+      <c r="K70" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L70" s="25"/>
+      <c r="L70" s="18"/>
       <c r="M70" s="7" t="s">
         <v>23</v>
       </c>
@@ -4996,26 +5002,26 @@
       <c r="B71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="25"/>
+      <c r="C71" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="18"/>
       <c r="E71" s="26" t="s">
         <v>157</v>
       </c>
       <c r="F71" s="27"/>
-      <c r="G71" s="24" t="s">
+      <c r="G71" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="24" t="s">
+      <c r="H71" s="18"/>
+      <c r="I71" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="J71" s="25"/>
-      <c r="K71" s="24" t="s">
+      <c r="J71" s="18"/>
+      <c r="K71" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L71" s="25"/>
+      <c r="L71" s="18"/>
       <c r="M71" s="7" t="s">
         <v>23</v>
       </c>
@@ -5043,26 +5049,26 @@
       <c r="B72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="25"/>
+      <c r="C72" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="18"/>
       <c r="E72" s="26" t="s">
         <v>157</v>
       </c>
       <c r="F72" s="27"/>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="25"/>
-      <c r="I72" s="24" t="s">
+      <c r="H72" s="18"/>
+      <c r="I72" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J72" s="25"/>
-      <c r="K72" s="24" t="s">
+      <c r="J72" s="18"/>
+      <c r="K72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L72" s="25"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="7" t="s">
         <v>23</v>
       </c>
@@ -5090,26 +5096,26 @@
       <c r="B73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="25"/>
+      <c r="C73" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="18"/>
       <c r="E73" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F73" s="27"/>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H73" s="25"/>
-      <c r="I73" s="24" t="s">
+      <c r="H73" s="18"/>
+      <c r="I73" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="J73" s="25"/>
-      <c r="K73" s="24" t="s">
+      <c r="J73" s="18"/>
+      <c r="K73" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="L73" s="25"/>
+      <c r="L73" s="18"/>
       <c r="M73" s="7" t="s">
         <v>23</v>
       </c>
@@ -5137,26 +5143,26 @@
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="25"/>
+      <c r="C74" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="18"/>
       <c r="E74" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F74" s="27"/>
-      <c r="G74" s="24" t="s">
+      <c r="G74" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="24" t="s">
+      <c r="H74" s="18"/>
+      <c r="I74" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="24" t="s">
+      <c r="J74" s="18"/>
+      <c r="K74" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="L74" s="25"/>
+      <c r="L74" s="18"/>
       <c r="M74" s="7" t="s">
         <v>23</v>
       </c>
@@ -5184,26 +5190,26 @@
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="25"/>
+      <c r="C75" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="18"/>
       <c r="E75" s="26" t="s">
         <v>163</v>
       </c>
       <c r="F75" s="27"/>
-      <c r="G75" s="24" t="s">
+      <c r="G75" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="25"/>
-      <c r="I75" s="24" t="s">
+      <c r="H75" s="18"/>
+      <c r="I75" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="J75" s="25"/>
-      <c r="K75" s="24" t="s">
+      <c r="J75" s="18"/>
+      <c r="K75" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L75" s="25"/>
+      <c r="L75" s="18"/>
       <c r="M75" s="7" t="s">
         <v>23</v>
       </c>
@@ -5231,26 +5237,26 @@
       <c r="B76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="25"/>
+      <c r="C76" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="18"/>
       <c r="E76" s="26" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="27"/>
-      <c r="G76" s="24" t="s">
+      <c r="G76" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="24" t="s">
+      <c r="H76" s="18"/>
+      <c r="I76" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J76" s="25"/>
-      <c r="K76" s="24" t="s">
+      <c r="J76" s="18"/>
+      <c r="K76" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="25"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="7" t="s">
         <v>23</v>
       </c>
@@ -5278,26 +5284,26 @@
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="25"/>
+      <c r="C77" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="18"/>
       <c r="E77" s="26" t="s">
         <v>168</v>
       </c>
       <c r="F77" s="27"/>
-      <c r="G77" s="24" t="s">
+      <c r="G77" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="24" t="s">
+      <c r="H77" s="18"/>
+      <c r="I77" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J77" s="25"/>
-      <c r="K77" s="24" t="s">
+      <c r="J77" s="18"/>
+      <c r="K77" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="L77" s="25"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="7" t="s">
         <v>23</v>
       </c>
@@ -5325,26 +5331,26 @@
       <c r="B78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="25"/>
+      <c r="C78" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="18"/>
       <c r="E78" s="26" t="s">
         <v>168</v>
       </c>
       <c r="F78" s="27"/>
-      <c r="G78" s="24" t="s">
+      <c r="G78" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H78" s="25"/>
-      <c r="I78" s="24" t="s">
+      <c r="H78" s="18"/>
+      <c r="I78" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J78" s="25"/>
-      <c r="K78" s="24" t="s">
+      <c r="J78" s="18"/>
+      <c r="K78" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L78" s="25"/>
+      <c r="L78" s="18"/>
       <c r="M78" s="7" t="s">
         <v>23</v>
       </c>
@@ -5372,26 +5378,26 @@
       <c r="B79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="25"/>
+      <c r="C79" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="18"/>
       <c r="E79" s="26" t="s">
         <v>168</v>
       </c>
       <c r="F79" s="27"/>
-      <c r="G79" s="24" t="s">
+      <c r="G79" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="H79" s="25"/>
-      <c r="I79" s="24" t="s">
+      <c r="H79" s="18"/>
+      <c r="I79" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J79" s="25"/>
-      <c r="K79" s="24" t="s">
+      <c r="J79" s="18"/>
+      <c r="K79" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="L79" s="25"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="7" t="s">
         <v>23</v>
       </c>
@@ -5419,26 +5425,26 @@
       <c r="B80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="25"/>
+      <c r="C80" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="18"/>
       <c r="E80" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F80" s="27"/>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="24" t="s">
+      <c r="H80" s="18"/>
+      <c r="I80" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J80" s="25"/>
-      <c r="K80" s="24" t="s">
+      <c r="J80" s="18"/>
+      <c r="K80" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L80" s="25"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5466,26 +5472,26 @@
       <c r="B81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="25"/>
+      <c r="C81" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="18"/>
       <c r="E81" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F81" s="27"/>
-      <c r="G81" s="24" t="s">
+      <c r="G81" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="25"/>
-      <c r="I81" s="24" t="s">
+      <c r="H81" s="18"/>
+      <c r="I81" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J81" s="25"/>
-      <c r="K81" s="24" t="s">
+      <c r="J81" s="18"/>
+      <c r="K81" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="L81" s="25"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="7" t="s">
         <v>23</v>
       </c>
@@ -5513,26 +5519,26 @@
       <c r="B82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="25"/>
+      <c r="C82" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="18"/>
       <c r="E82" s="26" t="s">
         <v>176</v>
       </c>
       <c r="F82" s="27"/>
-      <c r="G82" s="24" t="s">
+      <c r="G82" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="H82" s="25"/>
-      <c r="I82" s="24" t="s">
+      <c r="H82" s="18"/>
+      <c r="I82" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J82" s="25"/>
-      <c r="K82" s="24" t="s">
+      <c r="J82" s="18"/>
+      <c r="K82" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="L82" s="25"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="7" t="s">
         <v>23</v>
       </c>
@@ -5560,26 +5566,26 @@
       <c r="B83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="25"/>
+      <c r="C83" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="18"/>
       <c r="E83" s="26" t="s">
         <v>181</v>
       </c>
       <c r="F83" s="27"/>
-      <c r="G83" s="24" t="s">
+      <c r="G83" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="24" t="s">
+      <c r="H83" s="18"/>
+      <c r="I83" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="J83" s="25"/>
-      <c r="K83" s="24" t="s">
+      <c r="J83" s="18"/>
+      <c r="K83" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="L83" s="25"/>
+      <c r="L83" s="18"/>
       <c r="M83" s="7" t="s">
         <v>109</v>
       </c>
@@ -5607,26 +5613,26 @@
       <c r="B84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="25"/>
+      <c r="C84" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="18"/>
       <c r="E84" s="26" t="s">
         <v>181</v>
       </c>
       <c r="F84" s="27"/>
-      <c r="G84" s="24" t="s">
+      <c r="G84" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H84" s="25"/>
-      <c r="I84" s="24" t="s">
+      <c r="H84" s="18"/>
+      <c r="I84" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="J84" s="25"/>
-      <c r="K84" s="24" t="s">
+      <c r="J84" s="18"/>
+      <c r="K84" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L84" s="25"/>
+      <c r="L84" s="18"/>
       <c r="M84" s="7" t="s">
         <v>23</v>
       </c>
@@ -5654,26 +5660,26 @@
       <c r="B85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="25"/>
+      <c r="C85" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="18"/>
       <c r="E85" s="26" t="s">
         <v>181</v>
       </c>
       <c r="F85" s="27"/>
-      <c r="G85" s="24" t="s">
+      <c r="G85" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="24" t="s">
+      <c r="H85" s="18"/>
+      <c r="I85" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="25"/>
-      <c r="K85" s="24" t="s">
+      <c r="J85" s="18"/>
+      <c r="K85" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L85" s="25"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="7" t="s">
         <v>23</v>
       </c>
@@ -5701,26 +5707,26 @@
       <c r="B86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="25"/>
+      <c r="C86" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="18"/>
       <c r="E86" s="26" t="s">
         <v>187</v>
       </c>
       <c r="F86" s="27"/>
-      <c r="G86" s="24" t="s">
+      <c r="G86" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="H86" s="25"/>
-      <c r="I86" s="24" t="s">
+      <c r="H86" s="18"/>
+      <c r="I86" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="J86" s="25"/>
-      <c r="K86" s="24" t="s">
+      <c r="J86" s="18"/>
+      <c r="K86" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="L86" s="25"/>
+      <c r="L86" s="18"/>
       <c r="M86" s="7" t="s">
         <v>54</v>
       </c>
@@ -5748,26 +5754,26 @@
       <c r="B87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="25"/>
+      <c r="C87" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="18"/>
       <c r="E87" s="26" t="s">
         <v>187</v>
       </c>
       <c r="F87" s="27"/>
-      <c r="G87" s="24" t="s">
+      <c r="G87" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="25"/>
-      <c r="I87" s="24" t="s">
+      <c r="H87" s="18"/>
+      <c r="I87" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="J87" s="25"/>
-      <c r="K87" s="24" t="s">
+      <c r="J87" s="18"/>
+      <c r="K87" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L87" s="25"/>
+      <c r="L87" s="18"/>
       <c r="M87" s="7" t="s">
         <v>100</v>
       </c>
@@ -5795,26 +5801,26 @@
       <c r="B88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="25"/>
+      <c r="C88" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="18"/>
       <c r="E88" s="26" t="s">
         <v>192</v>
       </c>
       <c r="F88" s="27"/>
-      <c r="G88" s="24" t="s">
+      <c r="G88" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H88" s="25"/>
-      <c r="I88" s="24" t="s">
+      <c r="H88" s="18"/>
+      <c r="I88" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="25"/>
-      <c r="K88" s="24" t="s">
+      <c r="J88" s="18"/>
+      <c r="K88" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L88" s="25"/>
+      <c r="L88" s="18"/>
       <c r="M88" s="7" t="s">
         <v>23</v>
       </c>
@@ -5842,26 +5848,26 @@
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="25"/>
+      <c r="C89" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="18"/>
       <c r="E89" s="26" t="s">
         <v>192</v>
       </c>
       <c r="F89" s="27"/>
-      <c r="G89" s="24" t="s">
+      <c r="G89" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H89" s="25"/>
-      <c r="I89" s="24" t="s">
+      <c r="H89" s="18"/>
+      <c r="I89" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="J89" s="25"/>
-      <c r="K89" s="24" t="s">
+      <c r="J89" s="18"/>
+      <c r="K89" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L89" s="25"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="7" t="s">
         <v>23</v>
       </c>
@@ -5889,26 +5895,26 @@
       <c r="B90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="25"/>
+      <c r="C90" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="18"/>
       <c r="E90" s="26" t="s">
         <v>192</v>
       </c>
       <c r="F90" s="27"/>
-      <c r="G90" s="24" t="s">
+      <c r="G90" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H90" s="25"/>
-      <c r="I90" s="24" t="s">
+      <c r="H90" s="18"/>
+      <c r="I90" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J90" s="25"/>
-      <c r="K90" s="24" t="s">
+      <c r="J90" s="18"/>
+      <c r="K90" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L90" s="25"/>
+      <c r="L90" s="18"/>
       <c r="M90" s="7" t="s">
         <v>23</v>
       </c>
@@ -5936,26 +5942,26 @@
       <c r="B91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="25"/>
+      <c r="C91" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="18"/>
       <c r="E91" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F91" s="27"/>
-      <c r="G91" s="24" t="s">
+      <c r="G91" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="25"/>
-      <c r="I91" s="24" t="s">
+      <c r="H91" s="18"/>
+      <c r="I91" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J91" s="25"/>
-      <c r="K91" s="24" t="s">
+      <c r="J91" s="18"/>
+      <c r="K91" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="25"/>
+      <c r="L91" s="18"/>
       <c r="M91" s="7" t="s">
         <v>109</v>
       </c>
@@ -5983,26 +5989,26 @@
       <c r="B92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="25"/>
+      <c r="C92" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="18"/>
       <c r="E92" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F92" s="27"/>
-      <c r="G92" s="24" t="s">
+      <c r="G92" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="24" t="s">
+      <c r="H92" s="18"/>
+      <c r="I92" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J92" s="25"/>
-      <c r="K92" s="24" t="s">
+      <c r="J92" s="18"/>
+      <c r="K92" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L92" s="25"/>
+      <c r="L92" s="18"/>
       <c r="M92" s="7" t="s">
         <v>109</v>
       </c>
@@ -6030,26 +6036,26 @@
       <c r="B93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="25"/>
+      <c r="C93" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="18"/>
       <c r="E93" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F93" s="27"/>
-      <c r="G93" s="24" t="s">
+      <c r="G93" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="25"/>
-      <c r="I93" s="24" t="s">
+      <c r="H93" s="18"/>
+      <c r="I93" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J93" s="25"/>
-      <c r="K93" s="24" t="s">
+      <c r="J93" s="18"/>
+      <c r="K93" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="25"/>
+      <c r="L93" s="18"/>
       <c r="M93" s="7" t="s">
         <v>23</v>
       </c>
@@ -6077,26 +6083,26 @@
       <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="25"/>
+      <c r="C94" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="18"/>
       <c r="E94" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F94" s="27"/>
-      <c r="G94" s="24" t="s">
+      <c r="G94" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="25"/>
-      <c r="I94" s="24" t="s">
+      <c r="H94" s="18"/>
+      <c r="I94" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J94" s="25"/>
-      <c r="K94" s="24" t="s">
+      <c r="J94" s="18"/>
+      <c r="K94" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L94" s="25"/>
+      <c r="L94" s="18"/>
       <c r="M94" s="7" t="s">
         <v>23</v>
       </c>
@@ -6124,26 +6130,26 @@
       <c r="B95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="25"/>
+      <c r="C95" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="18"/>
       <c r="E95" s="26" t="s">
         <v>199</v>
       </c>
       <c r="F95" s="27"/>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="25"/>
-      <c r="I95" s="24" t="s">
+      <c r="H95" s="18"/>
+      <c r="I95" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J95" s="25"/>
-      <c r="K95" s="24" t="s">
+      <c r="J95" s="18"/>
+      <c r="K95" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="L95" s="25"/>
+      <c r="L95" s="18"/>
       <c r="M95" s="7" t="s">
         <v>109</v>
       </c>
@@ -6171,26 +6177,26 @@
       <c r="B96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="25"/>
+      <c r="C96" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="18"/>
       <c r="E96" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F96" s="27"/>
-      <c r="G96" s="24" t="s">
+      <c r="G96" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H96" s="25"/>
-      <c r="I96" s="24" t="s">
+      <c r="H96" s="18"/>
+      <c r="I96" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J96" s="25"/>
-      <c r="K96" s="24" t="s">
+      <c r="J96" s="18"/>
+      <c r="K96" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="L96" s="25"/>
+      <c r="L96" s="18"/>
       <c r="M96" s="7" t="s">
         <v>62</v>
       </c>
@@ -6218,26 +6224,26 @@
       <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="25"/>
+      <c r="C97" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="18"/>
       <c r="E97" s="26" t="s">
         <v>197</v>
       </c>
       <c r="F97" s="27"/>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H97" s="25"/>
-      <c r="I97" s="24" t="s">
+      <c r="H97" s="18"/>
+      <c r="I97" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="J97" s="25"/>
-      <c r="K97" s="24" t="s">
+      <c r="J97" s="18"/>
+      <c r="K97" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="L97" s="25"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="7" t="s">
         <v>23</v>
       </c>
@@ -6265,26 +6271,26 @@
       <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="25"/>
+      <c r="C98" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="18"/>
       <c r="E98" s="26" t="s">
         <v>205</v>
       </c>
       <c r="F98" s="27"/>
-      <c r="G98" s="24" t="s">
+      <c r="G98" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="25"/>
-      <c r="I98" s="24" t="s">
+      <c r="H98" s="18"/>
+      <c r="I98" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J98" s="25"/>
-      <c r="K98" s="24" t="s">
+      <c r="J98" s="18"/>
+      <c r="K98" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="L98" s="25"/>
+      <c r="L98" s="18"/>
       <c r="M98" s="7" t="s">
         <v>62</v>
       </c>
@@ -6312,26 +6318,26 @@
       <c r="B99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="25"/>
+      <c r="C99" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="18"/>
       <c r="E99" s="26" t="s">
         <v>205</v>
       </c>
       <c r="F99" s="27"/>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H99" s="25"/>
-      <c r="I99" s="24" t="s">
+      <c r="H99" s="18"/>
+      <c r="I99" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="J99" s="25"/>
-      <c r="K99" s="24" t="s">
+      <c r="J99" s="18"/>
+      <c r="K99" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L99" s="25"/>
+      <c r="L99" s="18"/>
       <c r="M99" s="7" t="s">
         <v>23</v>
       </c>
@@ -6359,26 +6365,26 @@
       <c r="B100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="25"/>
+      <c r="C100" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="18"/>
       <c r="E100" s="26" t="s">
         <v>209</v>
       </c>
       <c r="F100" s="27"/>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="24" t="s">
+      <c r="H100" s="18"/>
+      <c r="I100" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J100" s="25"/>
-      <c r="K100" s="24" t="s">
+      <c r="J100" s="18"/>
+      <c r="K100" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="L100" s="25"/>
+      <c r="L100" s="18"/>
       <c r="M100" s="7" t="s">
         <v>109</v>
       </c>
@@ -6408,24 +6414,24 @@
       <c r="B101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="25"/>
+      <c r="C101" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="18"/>
       <c r="E101" s="26" t="s">
         <v>209</v>
       </c>
       <c r="F101" s="27"/>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H101" s="25"/>
-      <c r="I101" s="24" t="s">
+      <c r="H101" s="18"/>
+      <c r="I101" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J101" s="25"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="25"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="18"/>
       <c r="M101" s="7"/>
       <c r="N101" s="8" t="s">
         <v>24</v>
@@ -6451,26 +6457,26 @@
       <c r="B102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="25"/>
+      <c r="C102" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="18"/>
       <c r="E102" s="26" t="s">
         <v>209</v>
       </c>
       <c r="F102" s="27"/>
-      <c r="G102" s="24" t="s">
+      <c r="G102" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H102" s="25"/>
-      <c r="I102" s="24" t="s">
+      <c r="H102" s="18"/>
+      <c r="I102" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="J102" s="25"/>
-      <c r="K102" s="24" t="s">
+      <c r="J102" s="18"/>
+      <c r="K102" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="L102" s="25"/>
+      <c r="L102" s="18"/>
       <c r="M102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6492,19 +6498,19 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="28"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="18"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="29"/>
-      <c r="K103" s="30"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="20"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -6513,11 +6519,11 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
-      <c r="T103" s="33" t="s">
+      <c r="T103" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="U103" s="34"/>
-      <c r="V103" s="35"/>
+      <c r="U103" s="24"/>
+      <c r="V103" s="25"/>
       <c r="W103" s="12"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
@@ -6530,8 +6536,8 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="31"/>
-      <c r="K104" s="32"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="22"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
@@ -6547,469 +6553,6 @@
     </row>
   </sheetData>
   <mergeCells count="481">
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="J103:K104"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
@@ -7028,6 +6571,469 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="J103:K104"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/법인인감 사용대장.xlsx
+++ b/법인인감 사용대장.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="219">
   <si>
     <t>사용인감(공인인증서)사용 관리대장</t>
   </si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>sdfsf</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>xcvxcv</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1482,15 +1486,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1511,36 +1545,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1926,7 +1930,7 @@
   <dimension ref="A1:W104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+      <selection activeCell="S48" sqref="S48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1979,31 +1983,31 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="30"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2031,31 +2035,31 @@
       <c r="W3" s="12"/>
     </row>
     <row r="4" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="30"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
@@ -2086,21 +2090,21 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2147,45 +2151,45 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="28" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="30"/>
-      <c r="I8" s="28" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="28" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
       <c r="Q8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="R8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="28" t="s">
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
     </row>
     <row r="9" spans="1:23" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
@@ -2221,26 +2225,26 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="26" t="s">
+      <c r="C10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="16" t="s">
+      <c r="J10" s="20"/>
+      <c r="K10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="7" t="s">
         <v>23</v>
       </c>
@@ -2270,26 +2274,26 @@
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="26" t="s">
+      <c r="C11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="20"/>
+      <c r="K11" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="7" t="s">
         <v>23</v>
       </c>
@@ -2317,26 +2321,26 @@
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="26" t="s">
+      <c r="C12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="7" t="s">
         <v>23</v>
       </c>
@@ -2364,26 +2368,26 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="26" t="s">
+      <c r="C13" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="20"/>
+      <c r="K13" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="7" t="s">
         <v>23</v>
       </c>
@@ -2409,26 +2413,26 @@
         <v>34</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="26" t="s">
+      <c r="C14" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="16" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="20"/>
+      <c r="K14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="7" t="s">
         <v>23</v>
       </c>
@@ -2454,26 +2458,26 @@
         <v>34</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="26" t="s">
+      <c r="C15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="16" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="18"/>
-      <c r="K15" s="16" t="s">
+      <c r="J15" s="20"/>
+      <c r="K15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="7" t="s">
         <v>23</v>
       </c>
@@ -2499,26 +2503,26 @@
         <v>34</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="26" t="s">
+      <c r="C16" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="16" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="18"/>
-      <c r="K16" s="16" t="s">
+      <c r="J16" s="20"/>
+      <c r="K16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2546,24 +2550,24 @@
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="26" t="s">
+      <c r="C17" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="16" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="18"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="7"/>
       <c r="N17" s="8" t="s">
         <v>24</v>
@@ -2587,26 +2591,26 @@
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="26" t="s">
+      <c r="C18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="16" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="16" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="20"/>
+      <c r="K18" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="7" t="s">
         <v>23</v>
       </c>
@@ -2634,26 +2638,26 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="26" t="s">
+      <c r="C19" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="16" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="16" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="20"/>
+      <c r="K19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="20"/>
       <c r="M19" s="7" t="s">
         <v>54</v>
       </c>
@@ -2681,26 +2685,26 @@
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="26" t="s">
+      <c r="C20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="16" t="s">
+      <c r="F20" s="22"/>
+      <c r="G20" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="16" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="20"/>
+      <c r="K20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="7" t="s">
         <v>54</v>
       </c>
@@ -2728,24 +2732,24 @@
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="26" t="s">
+      <c r="C21" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="16" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="16" t="s">
+      <c r="H21" s="20"/>
+      <c r="I21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="7"/>
       <c r="N21" s="8" t="s">
         <v>24</v>
@@ -2769,24 +2773,24 @@
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="26" t="s">
+      <c r="C22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="16" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="16" t="s">
+      <c r="H22" s="20"/>
+      <c r="I22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="20"/>
       <c r="M22" s="7"/>
       <c r="N22" s="8" t="s">
         <v>24</v>
@@ -2810,26 +2814,26 @@
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="26" t="s">
+      <c r="C23" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="16" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="16" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="16" t="s">
+      <c r="J23" s="20"/>
+      <c r="K23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="7" t="s">
         <v>62</v>
       </c>
@@ -2857,24 +2861,24 @@
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="26" t="s">
+      <c r="C24" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="16" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="16" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="18"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="18"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
       <c r="M24" s="7"/>
       <c r="N24" s="8" t="s">
         <v>24</v>
@@ -2898,24 +2902,24 @@
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="26" t="s">
+      <c r="C25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="16" t="s">
+      <c r="H25" s="20"/>
+      <c r="I25" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J25" s="18"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="7"/>
       <c r="N25" s="8" t="s">
         <v>24</v>
@@ -2939,26 +2943,26 @@
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="26" t="s">
+      <c r="C26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="16" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="16" t="s">
+      <c r="J26" s="20"/>
+      <c r="K26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="20"/>
       <c r="M26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2986,26 +2990,26 @@
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="26" t="s">
+      <c r="C27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="16" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="16" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="16" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="20"/>
       <c r="M27" s="7" t="s">
         <v>23</v>
       </c>
@@ -3031,24 +3035,24 @@
         <v>68</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="26" t="s">
+      <c r="C28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="16" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="18"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
       <c r="M28" s="7"/>
       <c r="N28" s="8" t="s">
         <v>24</v>
@@ -3072,26 +3076,26 @@
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="26" t="s">
+      <c r="C29" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="22"/>
+      <c r="G29" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="16" t="s">
+      <c r="H29" s="20"/>
+      <c r="I29" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J29" s="18"/>
-      <c r="K29" s="16" t="s">
+      <c r="J29" s="20"/>
+      <c r="K29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="20"/>
       <c r="M29" s="7" t="s">
         <v>23</v>
       </c>
@@ -3119,26 +3123,26 @@
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="26" t="s">
+      <c r="C30" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="16" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="16" t="s">
+      <c r="H30" s="20"/>
+      <c r="I30" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="18"/>
-      <c r="K30" s="16" t="s">
+      <c r="J30" s="20"/>
+      <c r="K30" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="20"/>
       <c r="M30" s="7" t="s">
         <v>23</v>
       </c>
@@ -3166,26 +3170,26 @@
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="26" t="s">
+      <c r="C31" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="16" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="16" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="16" t="s">
+      <c r="J31" s="20"/>
+      <c r="K31" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="20"/>
       <c r="M31" s="7" t="s">
         <v>23</v>
       </c>
@@ -3213,26 +3217,26 @@
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="26" t="s">
+      <c r="C32" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="16" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="16" t="s">
+      <c r="H32" s="20"/>
+      <c r="I32" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J32" s="18"/>
-      <c r="K32" s="16" t="s">
+      <c r="J32" s="20"/>
+      <c r="K32" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L32" s="18"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="7" t="s">
         <v>23</v>
       </c>
@@ -3260,26 +3264,26 @@
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="26" t="s">
+      <c r="C33" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="16" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="16" t="s">
+      <c r="H33" s="20"/>
+      <c r="I33" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="K33" s="16" t="s">
+      <c r="J33" s="20"/>
+      <c r="K33" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="20"/>
       <c r="M33" s="7" t="s">
         <v>23</v>
       </c>
@@ -3307,26 +3311,26 @@
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="26" t="s">
+      <c r="C34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="16" t="s">
+      <c r="F34" s="22"/>
+      <c r="G34" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="16" t="s">
+      <c r="H34" s="20"/>
+      <c r="I34" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="J34" s="18"/>
-      <c r="K34" s="16" t="s">
+      <c r="J34" s="20"/>
+      <c r="K34" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="7" t="s">
         <v>23</v>
       </c>
@@ -3354,26 +3358,26 @@
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="26" t="s">
+      <c r="C35" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="16" t="s">
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="16" t="s">
+      <c r="J35" s="20"/>
+      <c r="K35" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L35" s="18"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="7" t="s">
         <v>23</v>
       </c>
@@ -3401,26 +3405,26 @@
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="26" t="s">
+      <c r="C36" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="16" t="s">
+      <c r="H36" s="20"/>
+      <c r="I36" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="18"/>
-      <c r="K36" s="16" t="s">
+      <c r="J36" s="20"/>
+      <c r="K36" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="7" t="s">
         <v>23</v>
       </c>
@@ -3450,26 +3454,26 @@
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="26" t="s">
+      <c r="C37" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="16" t="s">
+      <c r="F37" s="22"/>
+      <c r="G37" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16" t="s">
+      <c r="H37" s="20"/>
+      <c r="I37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="16" t="s">
+      <c r="J37" s="20"/>
+      <c r="K37" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="7" t="s">
         <v>23</v>
       </c>
@@ -3497,26 +3501,26 @@
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="26" t="s">
+      <c r="C38" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="16" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="16" t="s">
+      <c r="H38" s="20"/>
+      <c r="I38" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J38" s="18"/>
-      <c r="K38" s="16" t="s">
+      <c r="J38" s="20"/>
+      <c r="K38" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="7" t="s">
         <v>23</v>
       </c>
@@ -3544,24 +3548,24 @@
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="26" t="s">
+      <c r="C39" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F39" s="27"/>
-      <c r="G39" s="16" t="s">
+      <c r="F39" s="22"/>
+      <c r="G39" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="16" t="s">
+      <c r="H39" s="20"/>
+      <c r="I39" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="18"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="18"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
       <c r="M39" s="7"/>
       <c r="N39" s="8" t="s">
         <v>24</v>
@@ -3585,26 +3589,26 @@
       <c r="B40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="26" t="s">
+      <c r="C40" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F40" s="27"/>
-      <c r="G40" s="16" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="16" t="s">
+      <c r="H40" s="20"/>
+      <c r="I40" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="J40" s="18"/>
-      <c r="K40" s="16" t="s">
+      <c r="J40" s="20"/>
+      <c r="K40" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="L40" s="18"/>
+      <c r="L40" s="20"/>
       <c r="M40" s="7" t="s">
         <v>23</v>
       </c>
@@ -3630,26 +3634,26 @@
         <v>97</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="26" t="s">
+      <c r="C41" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="27"/>
-      <c r="G41" s="16" t="s">
+      <c r="F41" s="22"/>
+      <c r="G41" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="16" t="s">
+      <c r="H41" s="20"/>
+      <c r="I41" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="J41" s="18"/>
-      <c r="K41" s="16" t="s">
+      <c r="J41" s="20"/>
+      <c r="K41" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L41" s="18"/>
+      <c r="L41" s="20"/>
       <c r="M41" s="7" t="s">
         <v>100</v>
       </c>
@@ -3677,26 +3681,26 @@
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="26" t="s">
+      <c r="C42" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="16" t="s">
+      <c r="F42" s="22"/>
+      <c r="G42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="16" t="s">
+      <c r="H42" s="20"/>
+      <c r="I42" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J42" s="18"/>
-      <c r="K42" s="16" t="s">
+      <c r="J42" s="20"/>
+      <c r="K42" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="18"/>
+      <c r="L42" s="20"/>
       <c r="M42" s="7" t="s">
         <v>100</v>
       </c>
@@ -3724,26 +3728,26 @@
       <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="26" t="s">
+      <c r="C43" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F43" s="27"/>
-      <c r="G43" s="16" t="s">
+      <c r="F43" s="22"/>
+      <c r="G43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="16" t="s">
+      <c r="H43" s="20"/>
+      <c r="I43" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J43" s="18"/>
-      <c r="K43" s="16" t="s">
+      <c r="J43" s="20"/>
+      <c r="K43" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L43" s="18"/>
+      <c r="L43" s="20"/>
       <c r="M43" s="7" t="s">
         <v>23</v>
       </c>
@@ -3771,26 +3775,26 @@
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="26" t="s">
+      <c r="C44" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="27"/>
-      <c r="G44" s="16" t="s">
+      <c r="F44" s="22"/>
+      <c r="G44" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="16" t="s">
+      <c r="H44" s="20"/>
+      <c r="I44" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="16" t="s">
+      <c r="J44" s="20"/>
+      <c r="K44" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="L44" s="18"/>
+      <c r="L44" s="20"/>
       <c r="M44" s="7"/>
       <c r="N44" s="8" t="s">
         <v>24</v>
@@ -3816,26 +3820,26 @@
       <c r="B45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="26" t="s">
+      <c r="C45" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="27"/>
-      <c r="G45" s="16" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="16" t="s">
+      <c r="H45" s="20"/>
+      <c r="I45" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J45" s="18"/>
-      <c r="K45" s="16" t="s">
+      <c r="J45" s="20"/>
+      <c r="K45" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="18"/>
+      <c r="L45" s="20"/>
       <c r="M45" s="7"/>
       <c r="N45" s="8" t="s">
         <v>24</v>
@@ -3861,26 +3865,26 @@
       <c r="B46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="26" t="s">
+      <c r="C46" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="27"/>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="22"/>
+      <c r="G46" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="16" t="s">
+      <c r="H46" s="20"/>
+      <c r="I46" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J46" s="18"/>
-      <c r="K46" s="16" t="s">
+      <c r="J46" s="20"/>
+      <c r="K46" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="18"/>
+      <c r="L46" s="20"/>
       <c r="M46" s="7"/>
       <c r="N46" s="8" t="s">
         <v>24</v>
@@ -3906,26 +3910,26 @@
       <c r="B47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="26" t="s">
+      <c r="C47" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="27"/>
-      <c r="G47" s="16" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="16" t="s">
+      <c r="H47" s="20"/>
+      <c r="I47" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="16" t="s">
+      <c r="J47" s="20"/>
+      <c r="K47" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="L47" s="18"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="7"/>
       <c r="N47" s="8" t="s">
         <v>24</v>
@@ -3951,26 +3955,26 @@
       <c r="B48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="26" t="s">
+      <c r="C48" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="22"/>
+      <c r="G48" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="16" t="s">
+      <c r="H48" s="20"/>
+      <c r="I48" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="16" t="s">
+      <c r="J48" s="20"/>
+      <c r="K48" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="L48" s="18"/>
+      <c r="L48" s="20"/>
       <c r="M48" s="7"/>
       <c r="N48" s="8" t="s">
         <v>24</v>
@@ -3983,7 +3987,9 @@
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="T48" s="2"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
@@ -3996,26 +4002,26 @@
       <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="26" t="s">
+      <c r="C49" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="16" t="s">
+      <c r="F49" s="22"/>
+      <c r="G49" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="16" t="s">
+      <c r="H49" s="20"/>
+      <c r="I49" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J49" s="18"/>
-      <c r="K49" s="16" t="s">
+      <c r="J49" s="20"/>
+      <c r="K49" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="L49" s="18"/>
+      <c r="L49" s="20"/>
       <c r="M49" s="7"/>
       <c r="N49" s="8" t="s">
         <v>24</v>
@@ -4041,26 +4047,26 @@
       <c r="B50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="26" t="s">
+      <c r="C50" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F50" s="27"/>
-      <c r="G50" s="16" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="16" t="s">
+      <c r="H50" s="20"/>
+      <c r="I50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J50" s="18"/>
-      <c r="K50" s="16" t="s">
+      <c r="J50" s="20"/>
+      <c r="K50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L50" s="18"/>
+      <c r="L50" s="20"/>
       <c r="M50" s="7" t="s">
         <v>23</v>
       </c>
@@ -4088,26 +4094,26 @@
       <c r="B51" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="26" t="s">
+      <c r="C51" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="16" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="16" t="s">
+      <c r="H51" s="20"/>
+      <c r="I51" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J51" s="18"/>
-      <c r="K51" s="16" t="s">
+      <c r="J51" s="20"/>
+      <c r="K51" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="L51" s="18"/>
+      <c r="L51" s="20"/>
       <c r="M51" s="7" t="s">
         <v>23</v>
       </c>
@@ -4133,24 +4139,24 @@
         <v>124</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="26" t="s">
+      <c r="C52" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="16" t="s">
+      <c r="F52" s="22"/>
+      <c r="G52" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="16" t="s">
+      <c r="H52" s="20"/>
+      <c r="I52" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J52" s="18"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="18"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
       <c r="M52" s="7"/>
       <c r="N52" s="8" t="s">
         <v>24</v>
@@ -4174,26 +4180,26 @@
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="26" t="s">
+      <c r="C53" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="16" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="16" t="s">
+      <c r="H53" s="20"/>
+      <c r="I53" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="18"/>
-      <c r="K53" s="16" t="s">
+      <c r="J53" s="20"/>
+      <c r="K53" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="L53" s="18"/>
+      <c r="L53" s="20"/>
       <c r="M53" s="7"/>
       <c r="N53" s="8" t="s">
         <v>24</v>
@@ -4219,26 +4225,26 @@
       <c r="B54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="26" t="s">
+      <c r="C54" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="16" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="16" t="s">
+      <c r="H54" s="20"/>
+      <c r="I54" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="16" t="s">
+      <c r="J54" s="20"/>
+      <c r="K54" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="L54" s="18"/>
+      <c r="L54" s="20"/>
       <c r="M54" s="7"/>
       <c r="N54" s="8" t="s">
         <v>24</v>
@@ -4264,26 +4270,26 @@
       <c r="B55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="26" t="s">
+      <c r="C55" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="16" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="16" t="s">
+      <c r="H55" s="20"/>
+      <c r="I55" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="16" t="s">
+      <c r="J55" s="20"/>
+      <c r="K55" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="18"/>
+      <c r="L55" s="20"/>
       <c r="M55" s="7"/>
       <c r="N55" s="8" t="s">
         <v>24</v>
@@ -4309,24 +4315,24 @@
       <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="26" t="s">
+      <c r="C56" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="16" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="16" t="s">
+      <c r="H56" s="20"/>
+      <c r="I56" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J56" s="18"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="18"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="20"/>
       <c r="M56" s="7"/>
       <c r="N56" s="8" t="s">
         <v>24</v>
@@ -4350,26 +4356,26 @@
       <c r="B57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="26" t="s">
+      <c r="C57" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="16" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="16" t="s">
+      <c r="H57" s="20"/>
+      <c r="I57" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J57" s="18"/>
-      <c r="K57" s="16" t="s">
+      <c r="J57" s="20"/>
+      <c r="K57" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L57" s="18"/>
+      <c r="L57" s="20"/>
       <c r="M57" s="7" t="s">
         <v>23</v>
       </c>
@@ -4397,26 +4403,26 @@
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="26" t="s">
+      <c r="C58" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="27"/>
-      <c r="G58" s="16" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="16" t="s">
+      <c r="H58" s="20"/>
+      <c r="I58" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J58" s="18"/>
-      <c r="K58" s="16" t="s">
+      <c r="J58" s="20"/>
+      <c r="K58" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="20"/>
       <c r="M58" s="7" t="s">
         <v>23</v>
       </c>
@@ -4444,26 +4450,26 @@
       <c r="B59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="26" t="s">
+      <c r="C59" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="27"/>
-      <c r="G59" s="16" t="s">
+      <c r="F59" s="22"/>
+      <c r="G59" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="16" t="s">
+      <c r="H59" s="20"/>
+      <c r="I59" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J59" s="18"/>
-      <c r="K59" s="16" t="s">
+      <c r="J59" s="20"/>
+      <c r="K59" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="L59" s="18"/>
+      <c r="L59" s="20"/>
       <c r="M59" s="7" t="s">
         <v>23</v>
       </c>
@@ -4491,26 +4497,26 @@
       <c r="B60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C60" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="26" t="s">
+      <c r="C60" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="27"/>
-      <c r="G60" s="16" t="s">
+      <c r="F60" s="22"/>
+      <c r="G60" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="16" t="s">
+      <c r="H60" s="20"/>
+      <c r="I60" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J60" s="18"/>
-      <c r="K60" s="16" t="s">
+      <c r="J60" s="20"/>
+      <c r="K60" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="L60" s="18"/>
+      <c r="L60" s="20"/>
       <c r="M60" s="7" t="s">
         <v>62</v>
       </c>
@@ -4538,26 +4544,26 @@
       <c r="B61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="26" t="s">
+      <c r="C61" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="16" t="s">
+      <c r="F61" s="22"/>
+      <c r="G61" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="16" t="s">
+      <c r="H61" s="20"/>
+      <c r="I61" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J61" s="18"/>
-      <c r="K61" s="16" t="s">
+      <c r="J61" s="20"/>
+      <c r="K61" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L61" s="18"/>
+      <c r="L61" s="20"/>
       <c r="M61" s="7" t="s">
         <v>23</v>
       </c>
@@ -4585,26 +4591,26 @@
       <c r="B62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="26" t="s">
+      <c r="C62" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="27"/>
-      <c r="G62" s="16" t="s">
+      <c r="F62" s="22"/>
+      <c r="G62" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="16" t="s">
+      <c r="H62" s="20"/>
+      <c r="I62" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="16" t="s">
+      <c r="J62" s="20"/>
+      <c r="K62" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="L62" s="18"/>
+      <c r="L62" s="20"/>
       <c r="M62" s="7" t="s">
         <v>23</v>
       </c>
@@ -4632,26 +4638,26 @@
       <c r="B63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="26" t="s">
+      <c r="C63" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="27"/>
-      <c r="G63" s="16" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="16" t="s">
+      <c r="H63" s="20"/>
+      <c r="I63" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="J63" s="18"/>
-      <c r="K63" s="16" t="s">
+      <c r="J63" s="20"/>
+      <c r="K63" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="L63" s="18"/>
+      <c r="L63" s="20"/>
       <c r="M63" s="7" t="s">
         <v>23</v>
       </c>
@@ -4679,24 +4685,24 @@
       <c r="B64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="26" t="s">
+      <c r="C64" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F64" s="27"/>
-      <c r="G64" s="16" t="s">
+      <c r="F64" s="22"/>
+      <c r="G64" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H64" s="18"/>
-      <c r="I64" s="16" t="s">
+      <c r="H64" s="20"/>
+      <c r="I64" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="J64" s="18"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="18"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="20"/>
       <c r="M64" s="7"/>
       <c r="N64" s="8" t="s">
         <v>24</v>
@@ -4720,26 +4726,26 @@
       <c r="B65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="26" t="s">
+      <c r="C65" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="16" t="s">
+      <c r="F65" s="22"/>
+      <c r="G65" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H65" s="18"/>
-      <c r="I65" s="16" t="s">
+      <c r="H65" s="20"/>
+      <c r="I65" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J65" s="18"/>
-      <c r="K65" s="16" t="s">
+      <c r="J65" s="20"/>
+      <c r="K65" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L65" s="18"/>
+      <c r="L65" s="20"/>
       <c r="M65" s="7" t="s">
         <v>23</v>
       </c>
@@ -4767,26 +4773,26 @@
       <c r="B66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="26" t="s">
+      <c r="C66" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F66" s="27"/>
-      <c r="G66" s="16" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="16" t="s">
+      <c r="H66" s="20"/>
+      <c r="I66" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J66" s="18"/>
-      <c r="K66" s="16" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L66" s="18"/>
+      <c r="L66" s="20"/>
       <c r="M66" s="7" t="s">
         <v>23</v>
       </c>
@@ -4814,26 +4820,26 @@
       <c r="B67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C67" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="26" t="s">
+      <c r="C67" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="16" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="16" t="s">
+      <c r="H67" s="20"/>
+      <c r="I67" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J67" s="18"/>
-      <c r="K67" s="16" t="s">
+      <c r="J67" s="20"/>
+      <c r="K67" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="L67" s="18"/>
+      <c r="L67" s="20"/>
       <c r="M67" s="7" t="s">
         <v>23</v>
       </c>
@@ -4861,26 +4867,26 @@
       <c r="B68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C68" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="26" t="s">
+      <c r="C68" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F68" s="27"/>
-      <c r="G68" s="16" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="16" t="s">
+      <c r="H68" s="20"/>
+      <c r="I68" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="J68" s="18"/>
-      <c r="K68" s="16" t="s">
+      <c r="J68" s="20"/>
+      <c r="K68" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="L68" s="18"/>
+      <c r="L68" s="20"/>
       <c r="M68" s="7" t="s">
         <v>23</v>
       </c>
@@ -4908,26 +4914,26 @@
       <c r="B69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="26" t="s">
+      <c r="C69" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="16" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="16" t="s">
+      <c r="H69" s="20"/>
+      <c r="I69" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="J69" s="18"/>
-      <c r="K69" s="16" t="s">
+      <c r="J69" s="20"/>
+      <c r="K69" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L69" s="18"/>
+      <c r="L69" s="20"/>
       <c r="M69" s="7" t="s">
         <v>23</v>
       </c>
@@ -4955,26 +4961,26 @@
       <c r="B70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="26" t="s">
+      <c r="C70" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F70" s="27"/>
-      <c r="G70" s="16" t="s">
+      <c r="F70" s="22"/>
+      <c r="G70" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H70" s="18"/>
-      <c r="I70" s="16" t="s">
+      <c r="H70" s="20"/>
+      <c r="I70" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J70" s="18"/>
-      <c r="K70" s="16" t="s">
+      <c r="J70" s="20"/>
+      <c r="K70" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L70" s="18"/>
+      <c r="L70" s="20"/>
       <c r="M70" s="7" t="s">
         <v>23</v>
       </c>
@@ -5002,26 +5008,26 @@
       <c r="B71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="26" t="s">
+      <c r="C71" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F71" s="27"/>
-      <c r="G71" s="16" t="s">
+      <c r="F71" s="22"/>
+      <c r="G71" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H71" s="18"/>
-      <c r="I71" s="16" t="s">
+      <c r="H71" s="20"/>
+      <c r="I71" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="J71" s="18"/>
-      <c r="K71" s="16" t="s">
+      <c r="J71" s="20"/>
+      <c r="K71" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L71" s="18"/>
+      <c r="L71" s="20"/>
       <c r="M71" s="7" t="s">
         <v>23</v>
       </c>
@@ -5049,26 +5055,26 @@
       <c r="B72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="26" t="s">
+      <c r="C72" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="F72" s="27"/>
-      <c r="G72" s="16" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="16" t="s">
+      <c r="H72" s="20"/>
+      <c r="I72" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J72" s="18"/>
-      <c r="K72" s="16" t="s">
+      <c r="J72" s="20"/>
+      <c r="K72" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L72" s="18"/>
+      <c r="L72" s="20"/>
       <c r="M72" s="7" t="s">
         <v>23</v>
       </c>
@@ -5096,26 +5102,26 @@
       <c r="B73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="26" t="s">
+      <c r="C73" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="16" t="s">
+      <c r="F73" s="22"/>
+      <c r="G73" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="16" t="s">
+      <c r="H73" s="20"/>
+      <c r="I73" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J73" s="18"/>
-      <c r="K73" s="16" t="s">
+      <c r="J73" s="20"/>
+      <c r="K73" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="L73" s="18"/>
+      <c r="L73" s="20"/>
       <c r="M73" s="7" t="s">
         <v>23</v>
       </c>
@@ -5143,26 +5149,26 @@
       <c r="B74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C74" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="26" t="s">
+      <c r="C74" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F74" s="27"/>
-      <c r="G74" s="16" t="s">
+      <c r="F74" s="22"/>
+      <c r="G74" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="16" t="s">
+      <c r="H74" s="20"/>
+      <c r="I74" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J74" s="18"/>
-      <c r="K74" s="16" t="s">
+      <c r="J74" s="20"/>
+      <c r="K74" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="L74" s="18"/>
+      <c r="L74" s="20"/>
       <c r="M74" s="7" t="s">
         <v>23</v>
       </c>
@@ -5190,26 +5196,26 @@
       <c r="B75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="26" t="s">
+      <c r="C75" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="F75" s="27"/>
-      <c r="G75" s="16" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="16" t="s">
+      <c r="H75" s="20"/>
+      <c r="I75" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J75" s="18"/>
-      <c r="K75" s="16" t="s">
+      <c r="J75" s="20"/>
+      <c r="K75" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L75" s="18"/>
+      <c r="L75" s="20"/>
       <c r="M75" s="7" t="s">
         <v>23</v>
       </c>
@@ -5237,26 +5243,26 @@
       <c r="B76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="26" t="s">
+      <c r="C76" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F76" s="27"/>
-      <c r="G76" s="16" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H76" s="18"/>
-      <c r="I76" s="16" t="s">
+      <c r="H76" s="20"/>
+      <c r="I76" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="J76" s="18"/>
-      <c r="K76" s="16" t="s">
+      <c r="J76" s="20"/>
+      <c r="K76" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L76" s="18"/>
+      <c r="L76" s="20"/>
       <c r="M76" s="7" t="s">
         <v>23</v>
       </c>
@@ -5284,26 +5290,26 @@
       <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="26" t="s">
+      <c r="C77" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="16" t="s">
+      <c r="F77" s="22"/>
+      <c r="G77" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="16" t="s">
+      <c r="H77" s="20"/>
+      <c r="I77" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J77" s="18"/>
-      <c r="K77" s="16" t="s">
+      <c r="J77" s="20"/>
+      <c r="K77" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="L77" s="18"/>
+      <c r="L77" s="20"/>
       <c r="M77" s="7" t="s">
         <v>23</v>
       </c>
@@ -5331,26 +5337,26 @@
       <c r="B78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C78" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="26" t="s">
+      <c r="C78" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F78" s="27"/>
-      <c r="G78" s="16" t="s">
+      <c r="F78" s="22"/>
+      <c r="G78" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="16" t="s">
+      <c r="H78" s="20"/>
+      <c r="I78" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J78" s="18"/>
-      <c r="K78" s="16" t="s">
+      <c r="J78" s="20"/>
+      <c r="K78" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="L78" s="18"/>
+      <c r="L78" s="20"/>
       <c r="M78" s="7" t="s">
         <v>23</v>
       </c>
@@ -5378,26 +5384,26 @@
       <c r="B79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="26" t="s">
+      <c r="C79" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="F79" s="27"/>
-      <c r="G79" s="16" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="16" t="s">
+      <c r="H79" s="20"/>
+      <c r="I79" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J79" s="18"/>
-      <c r="K79" s="16" t="s">
+      <c r="J79" s="20"/>
+      <c r="K79" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="L79" s="18"/>
+      <c r="L79" s="20"/>
       <c r="M79" s="7" t="s">
         <v>23</v>
       </c>
@@ -5425,26 +5431,26 @@
       <c r="B80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="26" t="s">
+      <c r="C80" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="16" t="s">
+      <c r="F80" s="22"/>
+      <c r="G80" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="16" t="s">
+      <c r="H80" s="20"/>
+      <c r="I80" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J80" s="18"/>
-      <c r="K80" s="16" t="s">
+      <c r="J80" s="20"/>
+      <c r="K80" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="L80" s="18"/>
+      <c r="L80" s="20"/>
       <c r="M80" s="7" t="s">
         <v>23</v>
       </c>
@@ -5472,26 +5478,26 @@
       <c r="B81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="18"/>
-      <c r="E81" s="26" t="s">
+      <c r="C81" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="20"/>
+      <c r="E81" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F81" s="27"/>
-      <c r="G81" s="16" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="16" t="s">
+      <c r="H81" s="20"/>
+      <c r="I81" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J81" s="18"/>
-      <c r="K81" s="16" t="s">
+      <c r="J81" s="20"/>
+      <c r="K81" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="L81" s="18"/>
+      <c r="L81" s="20"/>
       <c r="M81" s="7" t="s">
         <v>23</v>
       </c>
@@ -5519,26 +5525,26 @@
       <c r="B82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="26" t="s">
+      <c r="C82" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="F82" s="27"/>
-      <c r="G82" s="16" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="16" t="s">
+      <c r="H82" s="20"/>
+      <c r="I82" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="J82" s="18"/>
-      <c r="K82" s="16" t="s">
+      <c r="J82" s="20"/>
+      <c r="K82" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="L82" s="18"/>
+      <c r="L82" s="20"/>
       <c r="M82" s="7" t="s">
         <v>23</v>
       </c>
@@ -5566,26 +5572,26 @@
       <c r="B83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C83" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="26" t="s">
+      <c r="C83" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F83" s="27"/>
-      <c r="G83" s="16" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="16" t="s">
+      <c r="H83" s="20"/>
+      <c r="I83" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J83" s="18"/>
-      <c r="K83" s="16" t="s">
+      <c r="J83" s="20"/>
+      <c r="K83" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="L83" s="18"/>
+      <c r="L83" s="20"/>
       <c r="M83" s="7" t="s">
         <v>109</v>
       </c>
@@ -5613,26 +5619,26 @@
       <c r="B84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="26" t="s">
+      <c r="C84" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F84" s="27"/>
-      <c r="G84" s="16" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="16" t="s">
+      <c r="H84" s="20"/>
+      <c r="I84" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="J84" s="18"/>
-      <c r="K84" s="16" t="s">
+      <c r="J84" s="20"/>
+      <c r="K84" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L84" s="18"/>
+      <c r="L84" s="20"/>
       <c r="M84" s="7" t="s">
         <v>23</v>
       </c>
@@ -5660,26 +5666,26 @@
       <c r="B85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="18"/>
-      <c r="E85" s="26" t="s">
+      <c r="C85" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="16" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="16" t="s">
+      <c r="H85" s="20"/>
+      <c r="I85" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="J85" s="18"/>
-      <c r="K85" s="16" t="s">
+      <c r="J85" s="20"/>
+      <c r="K85" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L85" s="18"/>
+      <c r="L85" s="20"/>
       <c r="M85" s="7" t="s">
         <v>23</v>
       </c>
@@ -5707,26 +5713,26 @@
       <c r="B86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="26" t="s">
+      <c r="C86" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F86" s="27"/>
-      <c r="G86" s="16" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="16" t="s">
+      <c r="H86" s="20"/>
+      <c r="I86" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="J86" s="18"/>
-      <c r="K86" s="16" t="s">
+      <c r="J86" s="20"/>
+      <c r="K86" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="L86" s="18"/>
+      <c r="L86" s="20"/>
       <c r="M86" s="7" t="s">
         <v>54</v>
       </c>
@@ -5754,26 +5760,26 @@
       <c r="B87" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C87" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="26" t="s">
+      <c r="C87" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="16" t="s">
+      <c r="F87" s="22"/>
+      <c r="G87" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="16" t="s">
+      <c r="H87" s="20"/>
+      <c r="I87" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J87" s="18"/>
-      <c r="K87" s="16" t="s">
+      <c r="J87" s="20"/>
+      <c r="K87" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L87" s="18"/>
+      <c r="L87" s="20"/>
       <c r="M87" s="7" t="s">
         <v>100</v>
       </c>
@@ -5801,26 +5807,26 @@
       <c r="B88" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="26" t="s">
+      <c r="C88" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="16" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H88" s="18"/>
-      <c r="I88" s="16" t="s">
+      <c r="H88" s="20"/>
+      <c r="I88" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="J88" s="18"/>
-      <c r="K88" s="16" t="s">
+      <c r="J88" s="20"/>
+      <c r="K88" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L88" s="18"/>
+      <c r="L88" s="20"/>
       <c r="M88" s="7" t="s">
         <v>23</v>
       </c>
@@ -5848,26 +5854,26 @@
       <c r="B89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C89" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="18"/>
-      <c r="E89" s="26" t="s">
+      <c r="C89" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="16" t="s">
+      <c r="F89" s="22"/>
+      <c r="G89" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H89" s="18"/>
-      <c r="I89" s="16" t="s">
+      <c r="H89" s="20"/>
+      <c r="I89" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="J89" s="18"/>
-      <c r="K89" s="16" t="s">
+      <c r="J89" s="20"/>
+      <c r="K89" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L89" s="18"/>
+      <c r="L89" s="20"/>
       <c r="M89" s="7" t="s">
         <v>23</v>
       </c>
@@ -5895,26 +5901,26 @@
       <c r="B90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="26" t="s">
+      <c r="C90" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="16" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="16" t="s">
+      <c r="H90" s="20"/>
+      <c r="I90" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J90" s="18"/>
-      <c r="K90" s="16" t="s">
+      <c r="J90" s="20"/>
+      <c r="K90" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L90" s="18"/>
+      <c r="L90" s="20"/>
       <c r="M90" s="7" t="s">
         <v>23</v>
       </c>
@@ -5942,26 +5948,26 @@
       <c r="B91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="18"/>
-      <c r="E91" s="26" t="s">
+      <c r="C91" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="16" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="16" t="s">
+      <c r="H91" s="20"/>
+      <c r="I91" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J91" s="18"/>
-      <c r="K91" s="16" t="s">
+      <c r="J91" s="20"/>
+      <c r="K91" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L91" s="18"/>
+      <c r="L91" s="20"/>
       <c r="M91" s="7" t="s">
         <v>109</v>
       </c>
@@ -5989,26 +5995,26 @@
       <c r="B92" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="26" t="s">
+      <c r="C92" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="16" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="16" t="s">
+      <c r="H92" s="20"/>
+      <c r="I92" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J92" s="18"/>
-      <c r="K92" s="16" t="s">
+      <c r="J92" s="20"/>
+      <c r="K92" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L92" s="18"/>
+      <c r="L92" s="20"/>
       <c r="M92" s="7" t="s">
         <v>109</v>
       </c>
@@ -6036,26 +6042,26 @@
       <c r="B93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="26" t="s">
+      <c r="C93" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="16" t="s">
+      <c r="F93" s="22"/>
+      <c r="G93" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="16" t="s">
+      <c r="H93" s="20"/>
+      <c r="I93" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J93" s="18"/>
-      <c r="K93" s="16" t="s">
+      <c r="J93" s="20"/>
+      <c r="K93" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L93" s="18"/>
+      <c r="L93" s="20"/>
       <c r="M93" s="7" t="s">
         <v>23</v>
       </c>
@@ -6083,26 +6089,26 @@
       <c r="B94" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="26" t="s">
+      <c r="C94" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="16" t="s">
+      <c r="F94" s="22"/>
+      <c r="G94" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H94" s="18"/>
-      <c r="I94" s="16" t="s">
+      <c r="H94" s="20"/>
+      <c r="I94" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J94" s="18"/>
-      <c r="K94" s="16" t="s">
+      <c r="J94" s="20"/>
+      <c r="K94" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L94" s="18"/>
+      <c r="L94" s="20"/>
       <c r="M94" s="7" t="s">
         <v>23</v>
       </c>
@@ -6130,26 +6136,26 @@
       <c r="B95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="18"/>
-      <c r="E95" s="26" t="s">
+      <c r="C95" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F95" s="27"/>
-      <c r="G95" s="16" t="s">
+      <c r="F95" s="22"/>
+      <c r="G95" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H95" s="18"/>
-      <c r="I95" s="16" t="s">
+      <c r="H95" s="20"/>
+      <c r="I95" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J95" s="18"/>
-      <c r="K95" s="16" t="s">
+      <c r="J95" s="20"/>
+      <c r="K95" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="L95" s="18"/>
+      <c r="L95" s="20"/>
       <c r="M95" s="7" t="s">
         <v>109</v>
       </c>
@@ -6177,26 +6183,26 @@
       <c r="B96" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="26" t="s">
+      <c r="C96" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F96" s="27"/>
-      <c r="G96" s="16" t="s">
+      <c r="F96" s="22"/>
+      <c r="G96" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H96" s="18"/>
-      <c r="I96" s="16" t="s">
+      <c r="H96" s="20"/>
+      <c r="I96" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J96" s="18"/>
-      <c r="K96" s="16" t="s">
+      <c r="J96" s="20"/>
+      <c r="K96" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="L96" s="18"/>
+      <c r="L96" s="20"/>
       <c r="M96" s="7" t="s">
         <v>62</v>
       </c>
@@ -6224,26 +6230,26 @@
       <c r="B97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C97" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="26" t="s">
+      <c r="C97" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="F97" s="27"/>
-      <c r="G97" s="16" t="s">
+      <c r="F97" s="22"/>
+      <c r="G97" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H97" s="18"/>
-      <c r="I97" s="16" t="s">
+      <c r="H97" s="20"/>
+      <c r="I97" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="J97" s="18"/>
-      <c r="K97" s="16" t="s">
+      <c r="J97" s="20"/>
+      <c r="K97" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="L97" s="18"/>
+      <c r="L97" s="20"/>
       <c r="M97" s="7" t="s">
         <v>23</v>
       </c>
@@ -6271,26 +6277,26 @@
       <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="26" t="s">
+      <c r="C98" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F98" s="27"/>
-      <c r="G98" s="16" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="H98" s="18"/>
-      <c r="I98" s="16" t="s">
+      <c r="H98" s="20"/>
+      <c r="I98" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J98" s="18"/>
-      <c r="K98" s="16" t="s">
+      <c r="J98" s="20"/>
+      <c r="K98" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L98" s="18"/>
+      <c r="L98" s="20"/>
       <c r="M98" s="7" t="s">
         <v>62</v>
       </c>
@@ -6318,26 +6324,26 @@
       <c r="B99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C99" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="26" t="s">
+      <c r="C99" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F99" s="27"/>
-      <c r="G99" s="16" t="s">
+      <c r="F99" s="22"/>
+      <c r="G99" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H99" s="18"/>
-      <c r="I99" s="16" t="s">
+      <c r="H99" s="20"/>
+      <c r="I99" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="J99" s="18"/>
-      <c r="K99" s="16" t="s">
+      <c r="J99" s="20"/>
+      <c r="K99" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L99" s="18"/>
+      <c r="L99" s="20"/>
       <c r="M99" s="7" t="s">
         <v>23</v>
       </c>
@@ -6365,26 +6371,26 @@
       <c r="B100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C100" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="26" t="s">
+      <c r="C100" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F100" s="27"/>
-      <c r="G100" s="16" t="s">
+      <c r="F100" s="22"/>
+      <c r="G100" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H100" s="18"/>
-      <c r="I100" s="16" t="s">
+      <c r="H100" s="20"/>
+      <c r="I100" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J100" s="18"/>
-      <c r="K100" s="16" t="s">
+      <c r="J100" s="20"/>
+      <c r="K100" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="L100" s="18"/>
+      <c r="L100" s="20"/>
       <c r="M100" s="7" t="s">
         <v>109</v>
       </c>
@@ -6414,24 +6420,24 @@
       <c r="B101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="26" t="s">
+      <c r="C101" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="16" t="s">
+      <c r="F101" s="22"/>
+      <c r="G101" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H101" s="18"/>
-      <c r="I101" s="16" t="s">
+      <c r="H101" s="20"/>
+      <c r="I101" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="J101" s="18"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="18"/>
+      <c r="J101" s="20"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="20"/>
       <c r="M101" s="7"/>
       <c r="N101" s="8" t="s">
         <v>24</v>
@@ -6457,26 +6463,26 @@
       <c r="B102" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="26" t="s">
+      <c r="C102" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F102" s="27"/>
-      <c r="G102" s="16" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="H102" s="18"/>
-      <c r="I102" s="16" t="s">
+      <c r="H102" s="20"/>
+      <c r="I102" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="J102" s="18"/>
-      <c r="K102" s="16" t="s">
+      <c r="J102" s="20"/>
+      <c r="K102" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="L102" s="18"/>
+      <c r="L102" s="20"/>
       <c r="M102" s="7" t="s">
         <v>23</v>
       </c>
@@ -6498,19 +6504,19 @@
       <c r="W102" s="1"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="20"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="30"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -6519,11 +6525,11 @@
       <c r="Q103" s="2"/>
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
-      <c r="T103" s="23" t="s">
+      <c r="T103" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="U103" s="24"/>
-      <c r="V103" s="25"/>
+      <c r="U103" s="34"/>
+      <c r="V103" s="35"/>
       <c r="W103" s="12"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
@@ -6536,8 +6542,8 @@
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="22"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="32"/>
       <c r="L104" s="14"/>
       <c r="M104" s="14"/>
       <c r="N104" s="14"/>
@@ -6553,6 +6559,469 @@
     </row>
   </sheetData>
   <mergeCells count="481">
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="J103:K104"/>
+    <mergeCell ref="T103:V103"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="K102:L102"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="K89:L89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="K80:L80"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="R8:T8"/>
     <mergeCell ref="U8:W8"/>
@@ -6571,469 +7040,6 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="K80:L80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="K89:L89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:F99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:F100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="J103:K104"/>
-    <mergeCell ref="T103:V103"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="K102:L102"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
